--- a/opencart_codebase/image/catalog/seller_purpletree_bulk_product_upload.xlsx
+++ b/opencart_codebase/image/catalog/seller_purpletree_bulk_product_upload.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="19815" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" r:id="rId4"/>
-    <sheet name="Data" sheetId="2" r:id="rId5"/>
-    <sheet name="Links" sheetId="3" r:id="rId6"/>
-    <sheet name="Attribute" sheetId="4" r:id="rId7"/>
-    <sheet name="Recurring" sheetId="5" r:id="rId8"/>
-    <sheet name="Discount" sheetId="6" r:id="rId9"/>
-    <sheet name="Special" sheetId="7" r:id="rId10"/>
-    <sheet name="Image" sheetId="8" r:id="rId11"/>
-    <sheet name="Rewardpoints" sheetId="9" r:id="rId12"/>
-    <sheet name="SEO" sheetId="10" r:id="rId13"/>
-    <sheet name="Design" sheetId="11" r:id="rId14"/>
-    <sheet name="ProductOption" sheetId="12" r:id="rId15"/>
-    <sheet name="ProductOptionValue" sheetId="13" r:id="rId16"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Links" sheetId="3" r:id="rId3"/>
+    <sheet name="Attribute" sheetId="4" r:id="rId4"/>
+    <sheet name="Recurring" sheetId="5" r:id="rId5"/>
+    <sheet name="Discount" sheetId="6" r:id="rId6"/>
+    <sheet name="Special" sheetId="7" r:id="rId7"/>
+    <sheet name="Image" sheetId="8" r:id="rId8"/>
+    <sheet name="Rewardpoints" sheetId="9" r:id="rId9"/>
+    <sheet name="SEO" sheetId="10" r:id="rId10"/>
+    <sheet name="Design" sheetId="11" r:id="rId11"/>
+    <sheet name="ProductOption" sheetId="12" r:id="rId12"/>
+    <sheet name="ProductOptionValue" sheetId="13" r:id="rId13"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>product_id</t>
   </si>
@@ -75,9 +74,6 @@
   </si>
   <si>
     <t>demo 678</t>
-  </si>
-  <si>
-    <t>add_product</t>
   </si>
   <si>
     <t>model</t>
@@ -299,23 +295,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
@@ -326,20 +314,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="800080"/>
+        <fgColor rgb="FF800080"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFD3D3D3"/>
@@ -353,30 +344,27 @@
       <bottom style="thin">
         <color rgb="FFD3D3D3"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -666,31 +654,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8" customWidth="true" style="2"/>
-    <col min="3" max="3" width="15" customWidth="true" style="2"/>
-    <col min="4" max="4" width="7" customWidth="true" style="2"/>
-    <col min="5" max="5" width="14" customWidth="true" style="2"/>
-    <col min="6" max="6" width="20" customWidth="true" style="2"/>
-    <col min="7" max="7" width="16" customWidth="true" style="2"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customHeight="1" ht="25">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,14 +708,12 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -779,51 +762,38 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customHeight="1" ht="25">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -831,58 +801,45 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customHeight="1" ht="25">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -890,59 +847,44 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3"/>
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8" customWidth="true" style="2"/>
-    <col min="3" max="3" width="8" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9" customWidth="true" style="2"/>
-    <col min="5" max="5" width="12" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customHeight="1" ht="25">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,769 +892,660 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="17" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10" customWidth="true" style="0"/>
-    <col min="11" max="11" width="17" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customHeight="1" ht="25">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AF4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="18" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="11" customWidth="1"/>
+    <col min="29" max="29" width="14" customWidth="1"/>
+    <col min="30" max="30" width="10" customWidth="1"/>
+    <col min="31" max="31" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="24.95" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2">
+        <v>250</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>500</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9" customWidth="true" style="0"/>
-    <col min="4" max="4" width="7" customWidth="true" style="0"/>
-    <col min="5" max="5" width="7" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7" customWidth="true" style="0"/>
-    <col min="7" max="7" width="7" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8" customWidth="true" style="0"/>
-    <col min="9" max="9" width="7" customWidth="true" style="0"/>
-    <col min="10" max="10" width="12" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16" customWidth="true" style="0"/>
-    <col min="13" max="13" width="9" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16" customWidth="true" style="0"/>
-    <col min="15" max="15" width="12" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9" customWidth="true" style="0"/>
-    <col min="17" max="17" width="20" customWidth="true" style="0"/>
-    <col min="18" max="18" width="15" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10" customWidth="true" style="0"/>
-    <col min="20" max="20" width="13" customWidth="true" style="0"/>
-    <col min="21" max="21" width="18" customWidth="true" style="2"/>
-    <col min="22" max="22" width="10" customWidth="true" style="0"/>
-    <col min="23" max="23" width="16" customWidth="true" style="0"/>
-    <col min="24" max="24" width="10" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" customWidth="true" style="0"/>
-    <col min="27" max="27" width="16" customWidth="true" style="0"/>
-    <col min="28" max="28" width="12" customWidth="true" style="0"/>
-    <col min="29" max="29" width="11" customWidth="true" style="0"/>
-    <col min="30" max="30" width="14" customWidth="true" style="0"/>
-    <col min="31" max="31" width="10" customWidth="true" style="0"/>
-    <col min="32" max="32" width="9" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" customHeight="1" ht="25">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2"/>
-      <c r="B2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2">
-        <v>250</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>500</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3"/>
-      <c r="B3">
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3"/>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3"/>
-      <c r="U3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3"/>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3"/>
-      <c r="AB3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF3"/>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4"/>
-      <c r="B4">
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4"/>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4"/>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4"/>
-      <c r="AB4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF4"/>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12" customWidth="true" style="2"/>
-    <col min="3" max="3" width="12" customWidth="true" style="2"/>
-    <col min="4" max="4" width="10" customWidth="true" style="2"/>
-    <col min="5" max="5" width="11" customWidth="true" style="2"/>
-    <col min="6" max="6" width="9" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="25">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>93</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>97</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>98</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8" customWidth="true" style="2"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customHeight="1" ht="25">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customHeight="1" ht="25">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9" customWidth="true" style="0"/>
-    <col min="7" max="7" width="14" customWidth="true" style="2"/>
-    <col min="8" max="8" width="12" customWidth="true" style="2"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="25">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9" customWidth="true" style="0"/>
-    <col min="6" max="6" width="14" customWidth="true" style="2"/>
-    <col min="7" max="7" width="12" customWidth="true" style="2"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customHeight="1" ht="25">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1720,147 +1553,73 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>72</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2663</v>
+      </c>
+      <c r="B2">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2662</v>
+      </c>
+      <c r="B3">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9" customWidth="true" style="0"/>
-    <col min="4" max="4" width="14" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customHeight="1" ht="25">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2663</v>
-      </c>
-      <c r="B2">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2662</v>
-      </c>
-      <c r="B3">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" customHeight="1" ht="25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1868,24 +1627,14 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>